--- a/data/回饋規則.xlsx
+++ b/data/回饋規則.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李冠廷\PycharmProjects\golf\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\III_2024_golf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1C6C9F-2171-42A8-AC67-2B282A3F00F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3F1541-CE5A-434F-8F46-5B537C62CBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4A68F72D-56B3-4FA6-A689-630A80EBDCAD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>球路類型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杆頭高度與穩定性：杆頭上揚過高會導致不穩定，建議肩膀轉至適當位置即可，避免過多手部動作。下杆時，不需依靠手腕加速杆頭，而是放鬆手腕，讓杆子自然帶動。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>這次上杆高度適中且動作流暢，下杆時也保持穩定。教練指出這是由於下半身主導力量，使擊球姿勢自然且穩定，展現出漂亮的旋轉動作與擊球姿態，充分利用身體的力量而非過度依賴手腕。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,7 +434,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓄力的應用：揮杆動作如同跳躍或投球，需要適當蓄力。避免分解動作過於機械化，應集中於蓄力後的自然發力，利用身體的旋轉與下肢力量來達成順暢的揮杆動作。</t>
+    <t>肩膀請往右轉動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pull Slice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>左拉右曲球</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5至P6右肩和右手肘維持外旋，左手腕在P5.5時屈曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692E141-44C3-49AA-88FD-DEBFB53DB2D7}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
@@ -1023,7 +1039,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1082,9 +1098,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" ht="300" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="7" customFormat="1" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>9</v>
@@ -1093,7 +1109,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="7" customFormat="1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1177,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="7" customFormat="1" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1308,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
